--- a/data/trans_bre/P41E_2023_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P41E_2023_R-Dificultad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.013884663446381</v>
+        <v>2.013884663446377</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.09545496898217656</v>
+        <v>0.09545496898217641</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.710856299505582</v>
+        <v>-4.963564119190984</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1913008316760318</v>
+        <v>-0.2015570105509381</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.484894097828365</v>
+        <v>8.344258055809336</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.4742284961355377</v>
+        <v>0.4996000530360356</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-2.068527013537969</v>
+        <v>-2.068527013537971</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1087191492009318</v>
+        <v>-0.1087191492009319</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.948146265546005</v>
+        <v>-6.917750122501408</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3122992283051334</v>
+        <v>-0.3195374330441944</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.151795928413982</v>
+        <v>2.345616951753409</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1379837024500096</v>
+        <v>0.1421031451487855</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.593467333376096</v>
+        <v>-1.475637776551164</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.1550945923043482</v>
+        <v>-0.1494403968811875</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.628546286067988</v>
+        <v>4.880075697124973</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.7009134138646076</v>
+        <v>0.750976590161732</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.4832692974304005</v>
+        <v>0.4832692974303998</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.1436597418209687</v>
+        <v>0.1436597418209685</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.718517845153204</v>
+        <v>-1.699116664687285</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3948582973114899</v>
+        <v>-0.3858824472685336</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.600484261132223</v>
+        <v>2.6283220287447</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.017242377678211</v>
+        <v>1.102182816805685</v>
       </c>
     </row>
     <row r="16">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9644013899420828</v>
+        <v>-0.9490338417475758</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.0792791029206526</v>
+        <v>-0.07792341583934671</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.886247394517054</v>
+        <v>2.83602713190851</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.2826566804951322</v>
+        <v>0.2775881608930239</v>
       </c>
     </row>
     <row r="19">
